--- a/Final prediction/Otra opcion/weather.xlsx
+++ b/Final prediction/Otra opcion/weather.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\U\Semestres\Semestre 9\AI\Proyecto final\weather_prediction\Final prediction\Otra opcion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62EA29-D9A0-43BE-B33A-00ACB1D7AB8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weather" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,9 +57,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -533,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -607,7 +616,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -767,7 +775,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -802,7 +809,7 @@
             <c:numRef>
               <c:f>weather!$C$2:$C$277</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>m/d/yy\ h:mm;@</c:formatCode>
                 <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>43958.958333333336</c:v>
@@ -2511,7 +2518,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2674,7 +2681,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2833,7 +2839,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2868,7 +2873,7 @@
             <c:numRef>
               <c:f>weather!$C$2:$C$277</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>m/d/yy\ h:mm;@</c:formatCode>
                 <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>43958.958333333336</c:v>
@@ -4577,7 +4582,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4740,7 +4745,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4900,7 +4904,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4935,7 +4938,7 @@
             <c:numRef>
               <c:f>weather!$C$2:$C$277</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>m/d/yy\ h:mm;@</c:formatCode>
                 <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>43958.958333333336</c:v>
@@ -6644,7 +6647,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6807,7 +6810,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6966,7 +6968,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7015,7 +7016,7 @@
             <c:numRef>
               <c:f>weather!$C$2:$C$277</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>m/d/yy\ h:mm;@</c:formatCode>
                 <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>43958.958333333336</c:v>
@@ -8724,7 +8725,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8887,7 +8888,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9046,7 +9046,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9081,7 +9080,7 @@
             <c:numRef>
               <c:f>weather!$C$2:$C$277</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>m/d/yy\ h:mm;@</c:formatCode>
                 <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>43958.958333333336</c:v>
@@ -10790,7 +10789,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13735,7 +13734,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13765,7 +13770,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13797,7 +13808,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13829,7 +13846,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13861,7 +13884,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14143,26 +14172,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W52" sqref="W52"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -14188,7 +14217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -14196,7 +14225,7 @@
         <v>43958</v>
       </c>
       <c r="C2" s="3">
-        <f>B2+A2</f>
+        <f t="shared" ref="C2:C65" si="0">B2+A2</f>
         <v>43958.958333333336</v>
       </c>
       <c r="D2">
@@ -14215,7 +14244,7 @@
         <v>1452.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.96875</v>
       </c>
@@ -14223,7 +14252,7 @@
         <v>43958</v>
       </c>
       <c r="C3" s="3">
-        <f>B3+A3</f>
+        <f t="shared" si="0"/>
         <v>43958.96875</v>
       </c>
       <c r="D3">
@@ -14242,7 +14271,7 @@
         <v>1454.65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -14250,7 +14279,7 @@
         <v>43958</v>
       </c>
       <c r="C4" s="3">
-        <f>B4+A4</f>
+        <f t="shared" si="0"/>
         <v>43958.979166666664</v>
       </c>
       <c r="D4">
@@ -14269,7 +14298,7 @@
         <v>1456.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -14277,7 +14306,7 @@
         <v>43958</v>
       </c>
       <c r="C5" s="3">
-        <f>B5+A5</f>
+        <f t="shared" si="0"/>
         <v>43958.989583333336</v>
       </c>
       <c r="D5">
@@ -14296,7 +14325,7 @@
         <v>1457.31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -14304,7 +14333,7 @@
         <v>43959</v>
       </c>
       <c r="C6" s="3">
-        <f>B6+A6</f>
+        <f t="shared" si="0"/>
         <v>43959</v>
       </c>
       <c r="D6">
@@ -14323,7 +14352,7 @@
         <v>1458.16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -14331,7 +14360,7 @@
         <v>43959</v>
       </c>
       <c r="C7" s="3">
-        <f>B7+A7</f>
+        <f t="shared" si="0"/>
         <v>43959.010416666664</v>
       </c>
       <c r="D7">
@@ -14350,7 +14379,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -14358,7 +14387,7 @@
         <v>43959</v>
       </c>
       <c r="C8" s="3">
-        <f>B8+A8</f>
+        <f t="shared" si="0"/>
         <v>43959.020833333336</v>
       </c>
       <c r="D8">
@@ -14377,7 +14406,7 @@
         <v>1459.44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.125E-2</v>
       </c>
@@ -14385,7 +14414,7 @@
         <v>43959</v>
       </c>
       <c r="C9" s="3">
-        <f>B9+A9</f>
+        <f t="shared" si="0"/>
         <v>43959.03125</v>
       </c>
       <c r="D9">
@@ -14404,7 +14433,7 @@
         <v>1459.56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -14412,7 +14441,7 @@
         <v>43959</v>
       </c>
       <c r="C10" s="3">
-        <f>B10+A10</f>
+        <f t="shared" si="0"/>
         <v>43959.041666666664</v>
       </c>
       <c r="D10">
@@ -14431,7 +14460,7 @@
         <v>1459.48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -14439,7 +14468,7 @@
         <v>43959</v>
       </c>
       <c r="C11" s="3">
-        <f>B11+A11</f>
+        <f t="shared" si="0"/>
         <v>43959.052083333336</v>
       </c>
       <c r="D11">
@@ -14458,7 +14487,7 @@
         <v>1461.11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6.25E-2</v>
       </c>
@@ -14466,7 +14495,7 @@
         <v>43959</v>
       </c>
       <c r="C12" s="3">
-        <f>B12+A12</f>
+        <f t="shared" si="0"/>
         <v>43959.0625</v>
       </c>
       <c r="D12">
@@ -14485,7 +14514,7 @@
         <v>1463.16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -14493,7 +14522,7 @@
         <v>43959</v>
       </c>
       <c r="C13" s="3">
-        <f>B13+A13</f>
+        <f t="shared" si="0"/>
         <v>43959.072916666664</v>
       </c>
       <c r="D13">
@@ -14512,7 +14541,7 @@
         <v>1465.35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -14520,7 +14549,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="3">
-        <f>B14+A14</f>
+        <f t="shared" si="0"/>
         <v>43959.083333333336</v>
       </c>
       <c r="D14">
@@ -14539,7 +14568,7 @@
         <v>1466.94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9.375E-2</v>
       </c>
@@ -14547,7 +14576,7 @@
         <v>43959</v>
       </c>
       <c r="C15" s="3">
-        <f>B15+A15</f>
+        <f t="shared" si="0"/>
         <v>43959.09375</v>
       </c>
       <c r="D15">
@@ -14566,7 +14595,7 @@
         <v>1467.66</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -14574,7 +14603,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="3">
-        <f>B16+A16</f>
+        <f t="shared" si="0"/>
         <v>43959.104166666664</v>
       </c>
       <c r="D16">
@@ -14593,7 +14622,7 @@
         <v>1468.39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -14601,7 +14630,7 @@
         <v>43959</v>
       </c>
       <c r="C17" s="3">
-        <f>B17+A17</f>
+        <f t="shared" si="0"/>
         <v>43959.114583333336</v>
       </c>
       <c r="D17">
@@ -14620,7 +14649,7 @@
         <v>1469.81</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.125</v>
       </c>
@@ -14628,7 +14657,7 @@
         <v>43959</v>
       </c>
       <c r="C18" s="3">
-        <f>B18+A18</f>
+        <f t="shared" si="0"/>
         <v>43959.125</v>
       </c>
       <c r="D18">
@@ -14647,7 +14676,7 @@
         <v>1469.49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -14655,7 +14684,7 @@
         <v>43959</v>
       </c>
       <c r="C19" s="3">
-        <f>B19+A19</f>
+        <f t="shared" si="0"/>
         <v>43959.135416666664</v>
       </c>
       <c r="D19">
@@ -14674,7 +14703,7 @@
         <v>1469.37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -14682,7 +14711,7 @@
         <v>43959</v>
       </c>
       <c r="C20" s="3">
-        <f>B20+A20</f>
+        <f t="shared" si="0"/>
         <v>43959.145833333336</v>
       </c>
       <c r="D20">
@@ -14701,7 +14730,7 @@
         <v>1467.56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.15625</v>
       </c>
@@ -14709,7 +14738,7 @@
         <v>43959</v>
       </c>
       <c r="C21" s="3">
-        <f>B21+A21</f>
+        <f t="shared" si="0"/>
         <v>43959.15625</v>
       </c>
       <c r="D21">
@@ -14728,7 +14757,7 @@
         <v>1466.67</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -14736,7 +14765,7 @@
         <v>43959</v>
       </c>
       <c r="C22" s="3">
-        <f>B22+A22</f>
+        <f t="shared" si="0"/>
         <v>43959.166666666664</v>
       </c>
       <c r="D22">
@@ -14755,7 +14784,7 @@
         <v>1467.65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -14763,7 +14792,7 @@
         <v>43959</v>
       </c>
       <c r="C23" s="3">
-        <f>B23+A23</f>
+        <f t="shared" si="0"/>
         <v>43959.177083333336</v>
       </c>
       <c r="D23">
@@ -14782,7 +14811,7 @@
         <v>1466.95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.1875</v>
       </c>
@@ -14790,7 +14819,7 @@
         <v>43959</v>
       </c>
       <c r="C24" s="3">
-        <f>B24+A24</f>
+        <f t="shared" si="0"/>
         <v>43959.1875</v>
       </c>
       <c r="D24">
@@ -14809,7 +14838,7 @@
         <v>1466.13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -14817,7 +14846,7 @@
         <v>43959</v>
       </c>
       <c r="C25" s="3">
-        <f>B25+A25</f>
+        <f t="shared" si="0"/>
         <v>43959.197916666664</v>
       </c>
       <c r="D25">
@@ -14836,7 +14865,7 @@
         <v>1466.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -14844,7 +14873,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="3">
-        <f>B26+A26</f>
+        <f t="shared" si="0"/>
         <v>43959.208333333336</v>
       </c>
       <c r="D26">
@@ -14863,7 +14892,7 @@
         <v>1465.94</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.21875</v>
       </c>
@@ -14871,7 +14900,7 @@
         <v>43959</v>
       </c>
       <c r="C27" s="3">
-        <f>B27+A27</f>
+        <f t="shared" si="0"/>
         <v>43959.21875</v>
       </c>
       <c r="D27">
@@ -14890,7 +14919,7 @@
         <v>1465.24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -14898,7 +14927,7 @@
         <v>43959</v>
       </c>
       <c r="C28" s="3">
-        <f>B28+A28</f>
+        <f t="shared" si="0"/>
         <v>43959.229166666664</v>
       </c>
       <c r="D28">
@@ -14917,7 +14946,7 @@
         <v>1465.15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -14925,7 +14954,7 @@
         <v>43959</v>
       </c>
       <c r="C29" s="3">
-        <f>B29+A29</f>
+        <f t="shared" si="0"/>
         <v>43959.239583333336</v>
       </c>
       <c r="D29">
@@ -14944,7 +14973,7 @@
         <v>1465.66</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.25</v>
       </c>
@@ -14952,7 +14981,7 @@
         <v>43959</v>
       </c>
       <c r="C30" s="3">
-        <f>B30+A30</f>
+        <f t="shared" si="0"/>
         <v>43959.25</v>
       </c>
       <c r="D30">
@@ -14971,7 +15000,7 @@
         <v>1463.88</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -14979,7 +15008,7 @@
         <v>43959</v>
       </c>
       <c r="C31" s="3">
-        <f>B31+A31</f>
+        <f t="shared" si="0"/>
         <v>43959.260416666664</v>
       </c>
       <c r="D31">
@@ -14998,7 +15027,7 @@
         <v>1463.19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -15006,7 +15035,7 @@
         <v>43959</v>
       </c>
       <c r="C32" s="3">
-        <f>B32+A32</f>
+        <f t="shared" si="0"/>
         <v>43959.270833333336</v>
       </c>
       <c r="D32">
@@ -15025,7 +15054,7 @@
         <v>1461.74</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.28125</v>
       </c>
@@ -15033,7 +15062,7 @@
         <v>43959</v>
       </c>
       <c r="C33" s="3">
-        <f>B33+A33</f>
+        <f t="shared" si="0"/>
         <v>43959.28125</v>
       </c>
       <c r="D33">
@@ -15052,7 +15081,7 @@
         <v>1459.96</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -15060,7 +15089,7 @@
         <v>43959</v>
       </c>
       <c r="C34" s="3">
-        <f>B34+A34</f>
+        <f t="shared" si="0"/>
         <v>43959.291666666664</v>
       </c>
       <c r="D34">
@@ -15079,7 +15108,7 @@
         <v>1459.41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -15087,7 +15116,7 @@
         <v>43959</v>
       </c>
       <c r="C35" s="3">
-        <f>B35+A35</f>
+        <f t="shared" si="0"/>
         <v>43959.302083333336</v>
       </c>
       <c r="D35">
@@ -15106,7 +15135,7 @@
         <v>1458.66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.3125</v>
       </c>
@@ -15114,7 +15143,7 @@
         <v>43959</v>
       </c>
       <c r="C36" s="3">
-        <f>B36+A36</f>
+        <f t="shared" si="0"/>
         <v>43959.3125</v>
       </c>
       <c r="D36">
@@ -15133,7 +15162,7 @@
         <v>1457.94</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -15141,7 +15170,7 @@
         <v>43959</v>
       </c>
       <c r="C37" s="3">
-        <f>B37+A37</f>
+        <f t="shared" si="0"/>
         <v>43959.322916666664</v>
       </c>
       <c r="D37">
@@ -15160,7 +15189,7 @@
         <v>1458.32</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -15168,7 +15197,7 @@
         <v>43959</v>
       </c>
       <c r="C38" s="3">
-        <f>B38+A38</f>
+        <f t="shared" si="0"/>
         <v>43959.333333333336</v>
       </c>
       <c r="D38">
@@ -15187,7 +15216,7 @@
         <v>1457.8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.34375</v>
       </c>
@@ -15195,7 +15224,7 @@
         <v>43959</v>
       </c>
       <c r="C39" s="3">
-        <f>B39+A39</f>
+        <f t="shared" si="0"/>
         <v>43959.34375</v>
       </c>
       <c r="D39">
@@ -15214,7 +15243,7 @@
         <v>1459.01</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -15222,7 +15251,7 @@
         <v>43959</v>
       </c>
       <c r="C40" s="3">
-        <f>B40+A40</f>
+        <f t="shared" si="0"/>
         <v>43959.354166666664</v>
       </c>
       <c r="D40">
@@ -15241,7 +15270,7 @@
         <v>1459.48</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -15249,7 +15278,7 @@
         <v>43959</v>
       </c>
       <c r="C41" s="3">
-        <f>B41+A41</f>
+        <f t="shared" si="0"/>
         <v>43959.364583333336</v>
       </c>
       <c r="D41">
@@ -15268,7 +15297,7 @@
         <v>1460.63</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.375</v>
       </c>
@@ -15276,7 +15305,7 @@
         <v>43959</v>
       </c>
       <c r="C42" s="3">
-        <f>B42+A42</f>
+        <f t="shared" si="0"/>
         <v>43959.375</v>
       </c>
       <c r="D42">
@@ -15295,7 +15324,7 @@
         <v>1461.63</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -15303,7 +15332,7 @@
         <v>43959</v>
       </c>
       <c r="C43" s="3">
-        <f>B43+A43</f>
+        <f t="shared" si="0"/>
         <v>43959.385416666664</v>
       </c>
       <c r="D43">
@@ -15322,7 +15351,7 @@
         <v>1461.91</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -15330,7 +15359,7 @@
         <v>43959</v>
       </c>
       <c r="C44" s="3">
-        <f>B44+A44</f>
+        <f t="shared" si="0"/>
         <v>43959.395833333336</v>
       </c>
       <c r="D44">
@@ -15349,7 +15378,7 @@
         <v>1461.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.40625</v>
       </c>
@@ -15357,7 +15386,7 @@
         <v>43959</v>
       </c>
       <c r="C45" s="3">
-        <f>B45+A45</f>
+        <f t="shared" si="0"/>
         <v>43959.40625</v>
       </c>
       <c r="D45">
@@ -15376,7 +15405,7 @@
         <v>1461.9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -15384,7 +15413,7 @@
         <v>43959</v>
       </c>
       <c r="C46" s="3">
-        <f>B46+A46</f>
+        <f t="shared" si="0"/>
         <v>43959.416666666664</v>
       </c>
       <c r="D46">
@@ -15403,7 +15432,7 @@
         <v>1463.03</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -15411,7 +15440,7 @@
         <v>43959</v>
       </c>
       <c r="C47" s="3">
-        <f>B47+A47</f>
+        <f t="shared" si="0"/>
         <v>43959.427083333336</v>
       </c>
       <c r="D47">
@@ -15430,7 +15459,7 @@
         <v>1463.36</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.4375</v>
       </c>
@@ -15438,7 +15467,7 @@
         <v>43959</v>
       </c>
       <c r="C48" s="3">
-        <f>B48+A48</f>
+        <f t="shared" si="0"/>
         <v>43959.4375</v>
       </c>
       <c r="D48">
@@ -15457,7 +15486,7 @@
         <v>1464.64</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -15465,7 +15494,7 @@
         <v>43959</v>
       </c>
       <c r="C49" s="3">
-        <f>B49+A49</f>
+        <f t="shared" si="0"/>
         <v>43959.447916666664</v>
       </c>
       <c r="D49">
@@ -15484,7 +15513,7 @@
         <v>1466.45</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -15492,7 +15521,7 @@
         <v>43959</v>
       </c>
       <c r="C50" s="3">
-        <f>B50+A50</f>
+        <f t="shared" si="0"/>
         <v>43959.458333333336</v>
       </c>
       <c r="D50">
@@ -15511,7 +15540,7 @@
         <v>1467.62</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.46875</v>
       </c>
@@ -15519,7 +15548,7 @@
         <v>43959</v>
       </c>
       <c r="C51" s="3">
-        <f>B51+A51</f>
+        <f t="shared" si="0"/>
         <v>43959.46875</v>
       </c>
       <c r="D51">
@@ -15538,7 +15567,7 @@
         <v>1469.57</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -15546,7 +15575,7 @@
         <v>43959</v>
       </c>
       <c r="C52" s="3">
-        <f>B52+A52</f>
+        <f t="shared" si="0"/>
         <v>43959.479166666664</v>
       </c>
       <c r="D52">
@@ -15565,7 +15594,7 @@
         <v>1470.83</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -15573,7 +15602,7 @@
         <v>43959</v>
       </c>
       <c r="C53" s="3">
-        <f>B53+A53</f>
+        <f t="shared" si="0"/>
         <v>43959.489583333336</v>
       </c>
       <c r="D53">
@@ -15592,7 +15621,7 @@
         <v>1471.76</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.5</v>
       </c>
@@ -15600,7 +15629,7 @@
         <v>43959</v>
       </c>
       <c r="C54" s="3">
-        <f>B54+A54</f>
+        <f t="shared" si="0"/>
         <v>43959.5</v>
       </c>
       <c r="D54">
@@ -15619,7 +15648,7 @@
         <v>1472.9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -15627,7 +15656,7 @@
         <v>43959</v>
       </c>
       <c r="C55" s="3">
-        <f>B55+A55</f>
+        <f t="shared" si="0"/>
         <v>43959.510416666664</v>
       </c>
       <c r="D55">
@@ -15646,7 +15675,7 @@
         <v>1473.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -15654,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C56" s="3">
-        <f>B56+A56</f>
+        <f t="shared" si="0"/>
         <v>43959.520833333336</v>
       </c>
       <c r="D56">
@@ -15673,7 +15702,7 @@
         <v>1475.38</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.53125</v>
       </c>
@@ -15681,7 +15710,7 @@
         <v>43959</v>
       </c>
       <c r="C57" s="3">
-        <f>B57+A57</f>
+        <f t="shared" si="0"/>
         <v>43959.53125</v>
       </c>
       <c r="D57">
@@ -15700,7 +15729,7 @@
         <v>1477.7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -15708,7 +15737,7 @@
         <v>43959</v>
       </c>
       <c r="C58" s="3">
-        <f>B58+A58</f>
+        <f t="shared" si="0"/>
         <v>43959.541666666664</v>
       </c>
       <c r="D58">
@@ -15727,7 +15756,7 @@
         <v>1479.51</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -15735,7 +15764,7 @@
         <v>43959</v>
       </c>
       <c r="C59" s="3">
-        <f>B59+A59</f>
+        <f t="shared" si="0"/>
         <v>43959.552083333336</v>
       </c>
       <c r="D59">
@@ -15754,7 +15783,7 @@
         <v>1483.31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.5625</v>
       </c>
@@ -15762,7 +15791,7 @@
         <v>43959</v>
       </c>
       <c r="C60" s="3">
-        <f>B60+A60</f>
+        <f t="shared" si="0"/>
         <v>43959.5625</v>
       </c>
       <c r="D60">
@@ -15781,7 +15810,7 @@
         <v>1487.01</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -15789,7 +15818,7 @@
         <v>43959</v>
       </c>
       <c r="C61" s="3">
-        <f>B61+A61</f>
+        <f t="shared" si="0"/>
         <v>43959.572916666664</v>
       </c>
       <c r="D61">
@@ -15808,7 +15837,7 @@
         <v>1488.84</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -15816,7 +15845,7 @@
         <v>43959</v>
       </c>
       <c r="C62" s="3">
-        <f>B62+A62</f>
+        <f t="shared" si="0"/>
         <v>43959.583333333336</v>
       </c>
       <c r="D62">
@@ -15835,7 +15864,7 @@
         <v>1489.66</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.59375</v>
       </c>
@@ -15843,7 +15872,7 @@
         <v>43959</v>
       </c>
       <c r="C63" s="3">
-        <f>B63+A63</f>
+        <f t="shared" si="0"/>
         <v>43959.59375</v>
       </c>
       <c r="D63">
@@ -15862,7 +15891,7 @@
         <v>1488.65</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -15870,7 +15899,7 @@
         <v>43959</v>
       </c>
       <c r="C64" s="3">
-        <f>B64+A64</f>
+        <f t="shared" si="0"/>
         <v>43959.604166666664</v>
       </c>
       <c r="D64">
@@ -15889,7 +15918,7 @@
         <v>1489.26</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -15897,7 +15926,7 @@
         <v>43959</v>
       </c>
       <c r="C65" s="3">
-        <f>B65+A65</f>
+        <f t="shared" si="0"/>
         <v>43959.614583333336</v>
       </c>
       <c r="D65">
@@ -15916,7 +15945,7 @@
         <v>1488.44</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.625</v>
       </c>
@@ -15924,7 +15953,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="3">
-        <f>B66+A66</f>
+        <f t="shared" ref="C66:C129" si="1">B66+A66</f>
         <v>43959.625</v>
       </c>
       <c r="D66">
@@ -15943,7 +15972,7 @@
         <v>1488.79</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -15951,7 +15980,7 @@
         <v>43959</v>
       </c>
       <c r="C67" s="3">
-        <f>B67+A67</f>
+        <f t="shared" si="1"/>
         <v>43959.635416666664</v>
       </c>
       <c r="D67">
@@ -15970,7 +15999,7 @@
         <v>1488.74</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -15978,7 +16007,7 @@
         <v>43959</v>
       </c>
       <c r="C68" s="3">
-        <f>B68+A68</f>
+        <f t="shared" si="1"/>
         <v>43959.645833333336</v>
       </c>
       <c r="D68">
@@ -15997,7 +16026,7 @@
         <v>1488.92</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.65625</v>
       </c>
@@ -16005,7 +16034,7 @@
         <v>43959</v>
       </c>
       <c r="C69" s="3">
-        <f>B69+A69</f>
+        <f t="shared" si="1"/>
         <v>43959.65625</v>
       </c>
       <c r="D69">
@@ -16024,7 +16053,7 @@
         <v>1490.68</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -16032,7 +16061,7 @@
         <v>43959</v>
       </c>
       <c r="C70" s="3">
-        <f>B70+A70</f>
+        <f t="shared" si="1"/>
         <v>43959.666666666664</v>
       </c>
       <c r="D70">
@@ -16051,7 +16080,7 @@
         <v>1492.27</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -16059,7 +16088,7 @@
         <v>43959</v>
       </c>
       <c r="C71" s="3">
-        <f>B71+A71</f>
+        <f t="shared" si="1"/>
         <v>43959.677083333336</v>
       </c>
       <c r="D71">
@@ -16078,7 +16107,7 @@
         <v>1491.97</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.6875</v>
       </c>
@@ -16086,7 +16115,7 @@
         <v>43959</v>
       </c>
       <c r="C72" s="3">
-        <f>B72+A72</f>
+        <f t="shared" si="1"/>
         <v>43959.6875</v>
       </c>
       <c r="D72">
@@ -16105,7 +16134,7 @@
         <v>1489.82</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -16113,7 +16142,7 @@
         <v>43959</v>
       </c>
       <c r="C73" s="3">
-        <f>B73+A73</f>
+        <f t="shared" si="1"/>
         <v>43959.697916666664</v>
       </c>
       <c r="D73">
@@ -16132,7 +16161,7 @@
         <v>1492.15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -16140,7 +16169,7 @@
         <v>43959</v>
       </c>
       <c r="C74" s="3">
-        <f>B74+A74</f>
+        <f t="shared" si="1"/>
         <v>43959.708333333336</v>
       </c>
       <c r="D74">
@@ -16159,7 +16188,7 @@
         <v>1489.88</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.71875</v>
       </c>
@@ -16167,7 +16196,7 @@
         <v>43959</v>
       </c>
       <c r="C75" s="3">
-        <f>B75+A75</f>
+        <f t="shared" si="1"/>
         <v>43959.71875</v>
       </c>
       <c r="D75">
@@ -16186,7 +16215,7 @@
         <v>1485.21</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -16194,7 +16223,7 @@
         <v>43959</v>
       </c>
       <c r="C76" s="3">
-        <f>B76+A76</f>
+        <f t="shared" si="1"/>
         <v>43959.729166666664</v>
       </c>
       <c r="D76">
@@ -16213,7 +16242,7 @@
         <v>1483.05</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -16221,7 +16250,7 @@
         <v>43959</v>
       </c>
       <c r="C77" s="3">
-        <f>B77+A77</f>
+        <f t="shared" si="1"/>
         <v>43959.739583333336</v>
       </c>
       <c r="D77">
@@ -16240,7 +16269,7 @@
         <v>1482.35</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.75</v>
       </c>
@@ -16248,7 +16277,7 @@
         <v>43959</v>
       </c>
       <c r="C78" s="3">
-        <f>B78+A78</f>
+        <f t="shared" si="1"/>
         <v>43959.75</v>
       </c>
       <c r="D78">
@@ -16267,7 +16296,7 @@
         <v>1485.03</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -16275,7 +16304,7 @@
         <v>43959</v>
       </c>
       <c r="C79" s="3">
-        <f>B79+A79</f>
+        <f t="shared" si="1"/>
         <v>43959.760416666664</v>
       </c>
       <c r="D79">
@@ -16294,7 +16323,7 @@
         <v>1478.8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -16302,7 +16331,7 @@
         <v>43959</v>
       </c>
       <c r="C80" s="3">
-        <f>B80+A80</f>
+        <f t="shared" si="1"/>
         <v>43959.770833333336</v>
       </c>
       <c r="D80">
@@ -16321,7 +16350,7 @@
         <v>1477.57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.78125</v>
       </c>
@@ -16329,7 +16358,7 @@
         <v>43959</v>
       </c>
       <c r="C81" s="3">
-        <f>B81+A81</f>
+        <f t="shared" si="1"/>
         <v>43959.78125</v>
       </c>
       <c r="D81">
@@ -16348,7 +16377,7 @@
         <v>1477.27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -16356,7 +16385,7 @@
         <v>43959</v>
       </c>
       <c r="C82" s="3">
-        <f>B82+A82</f>
+        <f t="shared" si="1"/>
         <v>43959.791666666664</v>
       </c>
       <c r="D82">
@@ -16375,7 +16404,7 @@
         <v>1452.72</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -16383,7 +16412,7 @@
         <v>43959</v>
       </c>
       <c r="C83" s="3">
-        <f>B83+A83</f>
+        <f t="shared" si="1"/>
         <v>43959.802083333336</v>
       </c>
       <c r="D83">
@@ -16402,7 +16431,7 @@
         <v>1450.65</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.8125</v>
       </c>
@@ -16410,7 +16439,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="3">
-        <f>B84+A84</f>
+        <f t="shared" si="1"/>
         <v>43959.8125</v>
       </c>
       <c r="D84">
@@ -16429,7 +16458,7 @@
         <v>1448.23</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -16437,7 +16466,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="3">
-        <f>B85+A85</f>
+        <f t="shared" si="1"/>
         <v>43959.822916666664</v>
       </c>
       <c r="D85">
@@ -16456,7 +16485,7 @@
         <v>1448.61</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -16464,7 +16493,7 @@
         <v>43959</v>
       </c>
       <c r="C86" s="3">
-        <f>B86+A86</f>
+        <f t="shared" si="1"/>
         <v>43959.833333333336</v>
       </c>
       <c r="D86">
@@ -16483,7 +16512,7 @@
         <v>1448.63</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.84375</v>
       </c>
@@ -16491,7 +16520,7 @@
         <v>43959</v>
       </c>
       <c r="C87" s="3">
-        <f>B87+A87</f>
+        <f t="shared" si="1"/>
         <v>43959.84375</v>
       </c>
       <c r="D87">
@@ -16510,7 +16539,7 @@
         <v>1449.28</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -16518,7 +16547,7 @@
         <v>43959</v>
       </c>
       <c r="C88" s="3">
-        <f>B88+A88</f>
+        <f t="shared" si="1"/>
         <v>43959.854166666664</v>
       </c>
       <c r="D88">
@@ -16537,7 +16566,7 @@
         <v>1449.07</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -16545,7 +16574,7 @@
         <v>43959</v>
       </c>
       <c r="C89" s="3">
-        <f>B89+A89</f>
+        <f t="shared" si="1"/>
         <v>43959.864583333336</v>
       </c>
       <c r="D89">
@@ -16564,7 +16593,7 @@
         <v>1449.56</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.875</v>
       </c>
@@ -16572,7 +16601,7 @@
         <v>43959</v>
       </c>
       <c r="C90" s="3">
-        <f>B90+A90</f>
+        <f t="shared" si="1"/>
         <v>43959.875</v>
       </c>
       <c r="D90">
@@ -16591,7 +16620,7 @@
         <v>1451.76</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -16599,7 +16628,7 @@
         <v>43959</v>
       </c>
       <c r="C91" s="3">
-        <f>B91+A91</f>
+        <f t="shared" si="1"/>
         <v>43959.885416666664</v>
       </c>
       <c r="D91">
@@ -16618,7 +16647,7 @@
         <v>1452.32</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -16626,7 +16655,7 @@
         <v>43959</v>
       </c>
       <c r="C92" s="3">
-        <f>B92+A92</f>
+        <f t="shared" si="1"/>
         <v>43959.895833333336</v>
       </c>
       <c r="D92">
@@ -16645,7 +16674,7 @@
         <v>1453.94</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.90625</v>
       </c>
@@ -16653,7 +16682,7 @@
         <v>43959</v>
       </c>
       <c r="C93" s="3">
-        <f>B93+A93</f>
+        <f t="shared" si="1"/>
         <v>43959.90625</v>
       </c>
       <c r="D93">
@@ -16672,7 +16701,7 @@
         <v>1455.7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -16680,7 +16709,7 @@
         <v>43959</v>
       </c>
       <c r="C94" s="3">
-        <f>B94+A94</f>
+        <f t="shared" si="1"/>
         <v>43959.916666666664</v>
       </c>
       <c r="D94">
@@ -16699,7 +16728,7 @@
         <v>1457.34</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -16707,7 +16736,7 @@
         <v>43959</v>
       </c>
       <c r="C95" s="3">
-        <f>B95+A95</f>
+        <f t="shared" si="1"/>
         <v>43959.927083333336</v>
       </c>
       <c r="D95">
@@ -16726,7 +16755,7 @@
         <v>1456.79</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.9375</v>
       </c>
@@ -16734,7 +16763,7 @@
         <v>43959</v>
       </c>
       <c r="C96" s="3">
-        <f>B96+A96</f>
+        <f t="shared" si="1"/>
         <v>43959.9375</v>
       </c>
       <c r="D96">
@@ -16753,7 +16782,7 @@
         <v>1457.68</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -16761,7 +16790,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="3">
-        <f>B97+A97</f>
+        <f t="shared" si="1"/>
         <v>43959.947916666664</v>
       </c>
       <c r="D97">
@@ -16780,7 +16809,7 @@
         <v>1458.47</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -16788,7 +16817,7 @@
         <v>43959</v>
       </c>
       <c r="C98" s="3">
-        <f>B98+A98</f>
+        <f t="shared" si="1"/>
         <v>43959.958333333336</v>
       </c>
       <c r="D98">
@@ -16807,7 +16836,7 @@
         <v>1458.78</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0.96875</v>
       </c>
@@ -16815,7 +16844,7 @@
         <v>43959</v>
       </c>
       <c r="C99" s="3">
-        <f>B99+A99</f>
+        <f t="shared" si="1"/>
         <v>43959.96875</v>
       </c>
       <c r="D99">
@@ -16834,7 +16863,7 @@
         <v>1459.14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -16842,7 +16871,7 @@
         <v>43959</v>
       </c>
       <c r="C100" s="3">
-        <f>B100+A100</f>
+        <f t="shared" si="1"/>
         <v>43959.979166666664</v>
       </c>
       <c r="D100">
@@ -16861,7 +16890,7 @@
         <v>1460.26</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -16869,7 +16898,7 @@
         <v>43959</v>
       </c>
       <c r="C101" s="3">
-        <f>B101+A101</f>
+        <f t="shared" si="1"/>
         <v>43959.989583333336</v>
       </c>
       <c r="D101">
@@ -16888,7 +16917,7 @@
         <v>1461.31</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -16896,7 +16925,7 @@
         <v>43960</v>
       </c>
       <c r="C102" s="3">
-        <f>B102+A102</f>
+        <f t="shared" si="1"/>
         <v>43960</v>
       </c>
       <c r="D102">
@@ -16915,7 +16944,7 @@
         <v>1462.96</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -16923,7 +16952,7 @@
         <v>43960</v>
       </c>
       <c r="C103" s="3">
-        <f>B103+A103</f>
+        <f t="shared" si="1"/>
         <v>43960.010416666664</v>
       </c>
       <c r="D103">
@@ -16942,7 +16971,7 @@
         <v>1463.66</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -16950,7 +16979,7 @@
         <v>43960</v>
       </c>
       <c r="C104" s="3">
-        <f>B104+A104</f>
+        <f t="shared" si="1"/>
         <v>43960.020833333336</v>
       </c>
       <c r="D104">
@@ -16969,7 +16998,7 @@
         <v>1465.19</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>3.125E-2</v>
       </c>
@@ -16977,7 +17006,7 @@
         <v>43960</v>
       </c>
       <c r="C105" s="3">
-        <f>B105+A105</f>
+        <f t="shared" si="1"/>
         <v>43960.03125</v>
       </c>
       <c r="D105">
@@ -16996,7 +17025,7 @@
         <v>1466.72</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -17004,7 +17033,7 @@
         <v>43960</v>
       </c>
       <c r="C106" s="3">
-        <f>B106+A106</f>
+        <f t="shared" si="1"/>
         <v>43960.041666666664</v>
       </c>
       <c r="D106">
@@ -17023,7 +17052,7 @@
         <v>1467.69</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -17031,7 +17060,7 @@
         <v>43960</v>
       </c>
       <c r="C107" s="3">
-        <f>B107+A107</f>
+        <f t="shared" si="1"/>
         <v>43960.052083333336</v>
       </c>
       <c r="D107">
@@ -17050,7 +17079,7 @@
         <v>1468.79</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>6.25E-2</v>
       </c>
@@ -17058,7 +17087,7 @@
         <v>43960</v>
       </c>
       <c r="C108" s="3">
-        <f>B108+A108</f>
+        <f t="shared" si="1"/>
         <v>43960.0625</v>
       </c>
       <c r="D108">
@@ -17077,7 +17106,7 @@
         <v>1469.3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -17085,7 +17114,7 @@
         <v>43960</v>
       </c>
       <c r="C109" s="3">
-        <f>B109+A109</f>
+        <f t="shared" si="1"/>
         <v>43960.072916666664</v>
       </c>
       <c r="D109">
@@ -17104,7 +17133,7 @@
         <v>1472.45</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -17112,7 +17141,7 @@
         <v>43960</v>
       </c>
       <c r="C110" s="3">
-        <f>B110+A110</f>
+        <f t="shared" si="1"/>
         <v>43960.083333333336</v>
       </c>
       <c r="D110">
@@ -17131,7 +17160,7 @@
         <v>1473.93</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>9.375E-2</v>
       </c>
@@ -17139,7 +17168,7 @@
         <v>43960</v>
       </c>
       <c r="C111" s="3">
-        <f>B111+A111</f>
+        <f t="shared" si="1"/>
         <v>43960.09375</v>
       </c>
       <c r="D111">
@@ -17158,7 +17187,7 @@
         <v>1474.53</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -17166,7 +17195,7 @@
         <v>43960</v>
       </c>
       <c r="C112" s="3">
-        <f>B112+A112</f>
+        <f t="shared" si="1"/>
         <v>43960.104166666664</v>
       </c>
       <c r="D112">
@@ -17185,7 +17214,7 @@
         <v>1471.32</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -17193,7 +17222,7 @@
         <v>43960</v>
       </c>
       <c r="C113" s="3">
-        <f>B113+A113</f>
+        <f t="shared" si="1"/>
         <v>43960.114583333336</v>
       </c>
       <c r="D113">
@@ -17212,7 +17241,7 @@
         <v>1469.61</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>0.125</v>
       </c>
@@ -17220,7 +17249,7 @@
         <v>43960</v>
       </c>
       <c r="C114" s="3">
-        <f>B114+A114</f>
+        <f t="shared" si="1"/>
         <v>43960.125</v>
       </c>
       <c r="D114">
@@ -17239,7 +17268,7 @@
         <v>1469.48</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -17247,7 +17276,7 @@
         <v>43960</v>
       </c>
       <c r="C115" s="3">
-        <f>B115+A115</f>
+        <f t="shared" si="1"/>
         <v>43960.135416666664</v>
       </c>
       <c r="D115">
@@ -17266,7 +17295,7 @@
         <v>1471.59</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -17274,7 +17303,7 @@
         <v>43960</v>
       </c>
       <c r="C116" s="3">
-        <f>B116+A116</f>
+        <f t="shared" si="1"/>
         <v>43960.145833333336</v>
       </c>
       <c r="D116">
@@ -17293,7 +17322,7 @@
         <v>1471.61</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0.15625</v>
       </c>
@@ -17301,7 +17330,7 @@
         <v>43960</v>
       </c>
       <c r="C117" s="3">
-        <f>B117+A117</f>
+        <f t="shared" si="1"/>
         <v>43960.15625</v>
       </c>
       <c r="D117">
@@ -17320,7 +17349,7 @@
         <v>1470.27</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -17328,7 +17357,7 @@
         <v>43960</v>
       </c>
       <c r="C118" s="3">
-        <f>B118+A118</f>
+        <f t="shared" si="1"/>
         <v>43960.166666666664</v>
       </c>
       <c r="D118">
@@ -17347,7 +17376,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -17355,7 +17384,7 @@
         <v>43960</v>
       </c>
       <c r="C119" s="3">
-        <f>B119+A119</f>
+        <f t="shared" si="1"/>
         <v>43960.177083333336</v>
       </c>
       <c r="D119">
@@ -17374,7 +17403,7 @@
         <v>1465.94</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>0.1875</v>
       </c>
@@ -17382,7 +17411,7 @@
         <v>43960</v>
       </c>
       <c r="C120" s="3">
-        <f>B120+A120</f>
+        <f t="shared" si="1"/>
         <v>43960.1875</v>
       </c>
       <c r="D120">
@@ -17401,7 +17430,7 @@
         <v>1464.43</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -17409,7 +17438,7 @@
         <v>43960</v>
       </c>
       <c r="C121" s="3">
-        <f>B121+A121</f>
+        <f t="shared" si="1"/>
         <v>43960.197916666664</v>
       </c>
       <c r="D121">
@@ -17428,7 +17457,7 @@
         <v>1462.28</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -17436,7 +17465,7 @@
         <v>43960</v>
       </c>
       <c r="C122" s="3">
-        <f>B122+A122</f>
+        <f t="shared" si="1"/>
         <v>43960.208333333336</v>
       </c>
       <c r="D122">
@@ -17455,7 +17484,7 @@
         <v>1462.54</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>0.21875</v>
       </c>
@@ -17463,7 +17492,7 @@
         <v>43960</v>
       </c>
       <c r="C123" s="3">
-        <f>B123+A123</f>
+        <f t="shared" si="1"/>
         <v>43960.21875</v>
       </c>
       <c r="D123">
@@ -17482,7 +17511,7 @@
         <v>1460.81</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -17490,7 +17519,7 @@
         <v>43960</v>
       </c>
       <c r="C124" s="3">
-        <f>B124+A124</f>
+        <f t="shared" si="1"/>
         <v>43960.229166666664</v>
       </c>
       <c r="D124">
@@ -17509,7 +17538,7 @@
         <v>1461.86</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -17517,7 +17546,7 @@
         <v>43960</v>
       </c>
       <c r="C125" s="3">
-        <f>B125+A125</f>
+        <f t="shared" si="1"/>
         <v>43960.239583333336</v>
       </c>
       <c r="D125">
@@ -17536,7 +17565,7 @@
         <v>1463.03</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>0.25</v>
       </c>
@@ -17544,7 +17573,7 @@
         <v>43960</v>
       </c>
       <c r="C126" s="3">
-        <f>B126+A126</f>
+        <f t="shared" si="1"/>
         <v>43960.25</v>
       </c>
       <c r="D126">
@@ -17563,7 +17592,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -17571,7 +17600,7 @@
         <v>43960</v>
       </c>
       <c r="C127" s="3">
-        <f>B127+A127</f>
+        <f t="shared" si="1"/>
         <v>43960.260416666664</v>
       </c>
       <c r="D127">
@@ -17590,7 +17619,7 @@
         <v>1463.26</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -17598,7 +17627,7 @@
         <v>43960</v>
       </c>
       <c r="C128" s="3">
-        <f>B128+A128</f>
+        <f t="shared" si="1"/>
         <v>43960.270833333336</v>
       </c>
       <c r="D128">
@@ -17617,7 +17646,7 @@
         <v>1462.77</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0.28125</v>
       </c>
@@ -17625,7 +17654,7 @@
         <v>43960</v>
       </c>
       <c r="C129" s="3">
-        <f>B129+A129</f>
+        <f t="shared" si="1"/>
         <v>43960.28125</v>
       </c>
       <c r="D129">
@@ -17644,7 +17673,7 @@
         <v>1461.62</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -17652,7 +17681,7 @@
         <v>43960</v>
       </c>
       <c r="C130" s="3">
-        <f>B130+A130</f>
+        <f t="shared" ref="C130:C193" si="2">B130+A130</f>
         <v>43960.291666666664</v>
       </c>
       <c r="D130">
@@ -17671,7 +17700,7 @@
         <v>1460.48</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -17679,7 +17708,7 @@
         <v>43960</v>
       </c>
       <c r="C131" s="3">
-        <f>B131+A131</f>
+        <f t="shared" si="2"/>
         <v>43960.302083333336</v>
       </c>
       <c r="D131">
@@ -17698,7 +17727,7 @@
         <v>1462.18</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>0.3125</v>
       </c>
@@ -17706,7 +17735,7 @@
         <v>43960</v>
       </c>
       <c r="C132" s="3">
-        <f>B132+A132</f>
+        <f t="shared" si="2"/>
         <v>43960.3125</v>
       </c>
       <c r="D132">
@@ -17725,7 +17754,7 @@
         <v>1463.55</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -17733,7 +17762,7 @@
         <v>43960</v>
       </c>
       <c r="C133" s="3">
-        <f>B133+A133</f>
+        <f t="shared" si="2"/>
         <v>43960.322916666664</v>
       </c>
       <c r="D133">
@@ -17752,7 +17781,7 @@
         <v>1462.89</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -17760,7 +17789,7 @@
         <v>43960</v>
       </c>
       <c r="C134" s="3">
-        <f>B134+A134</f>
+        <f t="shared" si="2"/>
         <v>43960.333333333336</v>
       </c>
       <c r="D134">
@@ -17779,7 +17808,7 @@
         <v>1461.98</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0.34375</v>
       </c>
@@ -17787,7 +17816,7 @@
         <v>43960</v>
       </c>
       <c r="C135" s="3">
-        <f>B135+A135</f>
+        <f t="shared" si="2"/>
         <v>43960.34375</v>
       </c>
       <c r="D135">
@@ -17806,7 +17835,7 @@
         <v>1463.11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -17814,7 +17843,7 @@
         <v>43960</v>
       </c>
       <c r="C136" s="3">
-        <f>B136+A136</f>
+        <f t="shared" si="2"/>
         <v>43960.354166666664</v>
       </c>
       <c r="D136">
@@ -17833,7 +17862,7 @@
         <v>1464.04</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -17841,7 +17870,7 @@
         <v>43960</v>
       </c>
       <c r="C137" s="3">
-        <f>B137+A137</f>
+        <f t="shared" si="2"/>
         <v>43960.364583333336</v>
       </c>
       <c r="D137">
@@ -17860,7 +17889,7 @@
         <v>1465.61</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>0.375</v>
       </c>
@@ -17868,7 +17897,7 @@
         <v>43960</v>
       </c>
       <c r="C138" s="3">
-        <f>B138+A138</f>
+        <f t="shared" si="2"/>
         <v>43960.375</v>
       </c>
       <c r="D138">
@@ -17887,7 +17916,7 @@
         <v>1467.8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -17895,7 +17924,7 @@
         <v>43960</v>
       </c>
       <c r="C139" s="3">
-        <f>B139+A139</f>
+        <f t="shared" si="2"/>
         <v>43960.385416666664</v>
       </c>
       <c r="D139">
@@ -17914,7 +17943,7 @@
         <v>1469.14</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -17922,7 +17951,7 @@
         <v>43960</v>
       </c>
       <c r="C140" s="3">
-        <f>B140+A140</f>
+        <f t="shared" si="2"/>
         <v>43960.395833333336</v>
       </c>
       <c r="D140">
@@ -17941,7 +17970,7 @@
         <v>1469.69</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>0.40625</v>
       </c>
@@ -17949,7 +17978,7 @@
         <v>43960</v>
       </c>
       <c r="C141" s="3">
-        <f>B141+A141</f>
+        <f t="shared" si="2"/>
         <v>43960.40625</v>
       </c>
       <c r="D141">
@@ -17968,7 +17997,7 @@
         <v>1471.28</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -17976,7 +18005,7 @@
         <v>43960</v>
       </c>
       <c r="C142" s="3">
-        <f>B142+A142</f>
+        <f t="shared" si="2"/>
         <v>43960.416666666664</v>
       </c>
       <c r="D142">
@@ -17995,7 +18024,7 @@
         <v>1474.5</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -18003,7 +18032,7 @@
         <v>43960</v>
       </c>
       <c r="C143" s="3">
-        <f>B143+A143</f>
+        <f t="shared" si="2"/>
         <v>43960.427083333336</v>
       </c>
       <c r="D143">
@@ -18022,7 +18051,7 @@
         <v>1475.96</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0.4375</v>
       </c>
@@ -18030,7 +18059,7 @@
         <v>43960</v>
       </c>
       <c r="C144" s="3">
-        <f>B144+A144</f>
+        <f t="shared" si="2"/>
         <v>43960.4375</v>
       </c>
       <c r="D144">
@@ -18049,7 +18078,7 @@
         <v>1478.11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -18057,7 +18086,7 @@
         <v>43960</v>
       </c>
       <c r="C145" s="3">
-        <f>B145+A145</f>
+        <f t="shared" si="2"/>
         <v>43960.447916666664</v>
       </c>
       <c r="D145">
@@ -18076,7 +18105,7 @@
         <v>1478.17</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -18084,7 +18113,7 @@
         <v>43960</v>
       </c>
       <c r="C146" s="3">
-        <f>B146+A146</f>
+        <f t="shared" si="2"/>
         <v>43960.458333333336</v>
       </c>
       <c r="D146">
@@ -18103,7 +18132,7 @@
         <v>1480.07</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0.46875</v>
       </c>
@@ -18111,7 +18140,7 @@
         <v>43960</v>
       </c>
       <c r="C147" s="3">
-        <f>B147+A147</f>
+        <f t="shared" si="2"/>
         <v>43960.46875</v>
       </c>
       <c r="D147">
@@ -18130,7 +18159,7 @@
         <v>1482.9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -18138,7 +18167,7 @@
         <v>43960</v>
       </c>
       <c r="C148" s="3">
-        <f>B148+A148</f>
+        <f t="shared" si="2"/>
         <v>43960.479166666664</v>
       </c>
       <c r="D148">
@@ -18157,7 +18186,7 @@
         <v>1485.43</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -18165,7 +18194,7 @@
         <v>43960</v>
       </c>
       <c r="C149" s="3">
-        <f>B149+A149</f>
+        <f t="shared" si="2"/>
         <v>43960.489583333336</v>
       </c>
       <c r="D149">
@@ -18184,7 +18213,7 @@
         <v>1487.58</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0.5</v>
       </c>
@@ -18192,7 +18221,7 @@
         <v>43960</v>
       </c>
       <c r="C150" s="3">
-        <f>B150+A150</f>
+        <f t="shared" si="2"/>
         <v>43960.5</v>
       </c>
       <c r="D150">
@@ -18211,7 +18240,7 @@
         <v>1489.65</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -18219,7 +18248,7 @@
         <v>43960</v>
       </c>
       <c r="C151" s="3">
-        <f>B151+A151</f>
+        <f t="shared" si="2"/>
         <v>43960.510416666664</v>
       </c>
       <c r="D151">
@@ -18238,7 +18267,7 @@
         <v>1491.24</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -18246,7 +18275,7 @@
         <v>43960</v>
       </c>
       <c r="C152" s="3">
-        <f>B152+A152</f>
+        <f t="shared" si="2"/>
         <v>43960.520833333336</v>
       </c>
       <c r="D152">
@@ -18265,7 +18294,7 @@
         <v>1490.31</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>0.53125</v>
       </c>
@@ -18273,7 +18302,7 @@
         <v>43960</v>
       </c>
       <c r="C153" s="3">
-        <f>B153+A153</f>
+        <f t="shared" si="2"/>
         <v>43960.53125</v>
       </c>
       <c r="D153">
@@ -18292,7 +18321,7 @@
         <v>1492.29</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -18300,7 +18329,7 @@
         <v>43960</v>
       </c>
       <c r="C154" s="3">
-        <f>B154+A154</f>
+        <f t="shared" si="2"/>
         <v>43960.541666666664</v>
       </c>
       <c r="D154">
@@ -18319,7 +18348,7 @@
         <v>1493.04</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -18327,7 +18356,7 @@
         <v>43960</v>
       </c>
       <c r="C155" s="3">
-        <f>B155+A155</f>
+        <f t="shared" si="2"/>
         <v>43960.552083333336</v>
       </c>
       <c r="D155">
@@ -18346,7 +18375,7 @@
         <v>1494.86</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>0.5625</v>
       </c>
@@ -18354,7 +18383,7 @@
         <v>43960</v>
       </c>
       <c r="C156" s="3">
-        <f>B156+A156</f>
+        <f t="shared" si="2"/>
         <v>43960.5625</v>
       </c>
       <c r="D156">
@@ -18373,7 +18402,7 @@
         <v>1494.9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -18381,7 +18410,7 @@
         <v>43960</v>
       </c>
       <c r="C157" s="3">
-        <f>B157+A157</f>
+        <f t="shared" si="2"/>
         <v>43960.572916666664</v>
       </c>
       <c r="D157">
@@ -18400,7 +18429,7 @@
         <v>1491.3</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -18408,7 +18437,7 @@
         <v>43960</v>
       </c>
       <c r="C158" s="3">
-        <f>B158+A158</f>
+        <f t="shared" si="2"/>
         <v>43960.583333333336</v>
       </c>
       <c r="D158">
@@ -18427,7 +18456,7 @@
         <v>1490.01</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>0.59375</v>
       </c>
@@ -18435,7 +18464,7 @@
         <v>43960</v>
       </c>
       <c r="C159" s="3">
-        <f>B159+A159</f>
+        <f t="shared" si="2"/>
         <v>43960.59375</v>
       </c>
       <c r="D159">
@@ -18454,7 +18483,7 @@
         <v>1487.94</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -18462,7 +18491,7 @@
         <v>43960</v>
       </c>
       <c r="C160" s="3">
-        <f>B160+A160</f>
+        <f t="shared" si="2"/>
         <v>43960.604166666664</v>
       </c>
       <c r="D160">
@@ -18481,7 +18510,7 @@
         <v>1487.47</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -18489,7 +18518,7 @@
         <v>43960</v>
       </c>
       <c r="C161" s="3">
-        <f>B161+A161</f>
+        <f t="shared" si="2"/>
         <v>43960.614583333336</v>
       </c>
       <c r="D161">
@@ -18508,7 +18537,7 @@
         <v>1486.12</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>0.625</v>
       </c>
@@ -18516,7 +18545,7 @@
         <v>43960</v>
       </c>
       <c r="C162" s="3">
-        <f>B162+A162</f>
+        <f t="shared" si="2"/>
         <v>43960.625</v>
       </c>
       <c r="D162">
@@ -18535,7 +18564,7 @@
         <v>1482.57</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -18543,7 +18572,7 @@
         <v>43960</v>
       </c>
       <c r="C163" s="3">
-        <f>B163+A163</f>
+        <f t="shared" si="2"/>
         <v>43960.635416666664</v>
       </c>
       <c r="D163">
@@ -18562,7 +18591,7 @@
         <v>1479.08</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -18570,7 +18599,7 @@
         <v>43960</v>
       </c>
       <c r="C164" s="3">
-        <f>B164+A164</f>
+        <f t="shared" si="2"/>
         <v>43960.645833333336</v>
       </c>
       <c r="D164">
@@ -18589,7 +18618,7 @@
         <v>1478.05</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>0.65625</v>
       </c>
@@ -18597,7 +18626,7 @@
         <v>43960</v>
       </c>
       <c r="C165" s="3">
-        <f>B165+A165</f>
+        <f t="shared" si="2"/>
         <v>43960.65625</v>
       </c>
       <c r="D165">
@@ -18616,7 +18645,7 @@
         <v>1477.98</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -18624,7 +18653,7 @@
         <v>43960</v>
       </c>
       <c r="C166" s="3">
-        <f>B166+A166</f>
+        <f t="shared" si="2"/>
         <v>43960.666666666664</v>
       </c>
       <c r="D166">
@@ -18643,7 +18672,7 @@
         <v>1478.98</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -18651,7 +18680,7 @@
         <v>43960</v>
       </c>
       <c r="C167" s="3">
-        <f>B167+A167</f>
+        <f t="shared" si="2"/>
         <v>43960.677083333336</v>
       </c>
       <c r="D167">
@@ -18670,7 +18699,7 @@
         <v>1476.43</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>0.6875</v>
       </c>
@@ -18678,7 +18707,7 @@
         <v>43960</v>
       </c>
       <c r="C168" s="3">
-        <f>B168+A168</f>
+        <f t="shared" si="2"/>
         <v>43960.6875</v>
       </c>
       <c r="D168">
@@ -18697,7 +18726,7 @@
         <v>1474.69</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -18705,7 +18734,7 @@
         <v>43960</v>
       </c>
       <c r="C169" s="3">
-        <f>B169+A169</f>
+        <f t="shared" si="2"/>
         <v>43960.697916666664</v>
       </c>
       <c r="D169">
@@ -18724,7 +18753,7 @@
         <v>1471.13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -18732,7 +18761,7 @@
         <v>43960</v>
       </c>
       <c r="C170" s="3">
-        <f>B170+A170</f>
+        <f t="shared" si="2"/>
         <v>43960.708333333336</v>
       </c>
       <c r="D170">
@@ -18751,7 +18780,7 @@
         <v>1470.68</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>0.71875</v>
       </c>
@@ -18759,7 +18788,7 @@
         <v>43960</v>
       </c>
       <c r="C171" s="3">
-        <f>B171+A171</f>
+        <f t="shared" si="2"/>
         <v>43960.71875</v>
       </c>
       <c r="D171">
@@ -18778,7 +18807,7 @@
         <v>1469.47</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -18786,7 +18815,7 @@
         <v>43960</v>
       </c>
       <c r="C172" s="3">
-        <f>B172+A172</f>
+        <f t="shared" si="2"/>
         <v>43960.729166666664</v>
       </c>
       <c r="D172">
@@ -18805,7 +18834,7 @@
         <v>1468.66</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -18813,7 +18842,7 @@
         <v>43960</v>
       </c>
       <c r="C173" s="3">
-        <f>B173+A173</f>
+        <f t="shared" si="2"/>
         <v>43960.739583333336</v>
       </c>
       <c r="D173">
@@ -18832,7 +18861,7 @@
         <v>1468.11</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>0.75</v>
       </c>
@@ -18840,7 +18869,7 @@
         <v>43960</v>
       </c>
       <c r="C174" s="3">
-        <f>B174+A174</f>
+        <f t="shared" si="2"/>
         <v>43960.75</v>
       </c>
       <c r="D174">
@@ -18859,7 +18888,7 @@
         <v>1463.76</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -18867,7 +18896,7 @@
         <v>43960</v>
       </c>
       <c r="C175" s="3">
-        <f>B175+A175</f>
+        <f t="shared" si="2"/>
         <v>43960.760416666664</v>
       </c>
       <c r="D175">
@@ -18886,7 +18915,7 @@
         <v>1461.85</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -18894,7 +18923,7 @@
         <v>43960</v>
       </c>
       <c r="C176" s="3">
-        <f>B176+A176</f>
+        <f t="shared" si="2"/>
         <v>43960.770833333336</v>
       </c>
       <c r="D176">
@@ -18913,7 +18942,7 @@
         <v>1459.54</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>0.78125</v>
       </c>
@@ -18921,7 +18950,7 @@
         <v>43960</v>
       </c>
       <c r="C177" s="3">
-        <f>B177+A177</f>
+        <f t="shared" si="2"/>
         <v>43960.78125</v>
       </c>
       <c r="D177">
@@ -18940,7 +18969,7 @@
         <v>1457.32</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -18948,7 +18977,7 @@
         <v>43960</v>
       </c>
       <c r="C178" s="3">
-        <f>B178+A178</f>
+        <f t="shared" si="2"/>
         <v>43960.791666666664</v>
       </c>
       <c r="D178">
@@ -18967,7 +18996,7 @@
         <v>1454.75</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -18975,7 +19004,7 @@
         <v>43960</v>
       </c>
       <c r="C179" s="3">
-        <f>B179+A179</f>
+        <f t="shared" si="2"/>
         <v>43960.802083333336</v>
       </c>
       <c r="D179">
@@ -18994,7 +19023,7 @@
         <v>1452.84</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>0.8125</v>
       </c>
@@ -19002,7 +19031,7 @@
         <v>43960</v>
       </c>
       <c r="C180" s="3">
-        <f>B180+A180</f>
+        <f t="shared" si="2"/>
         <v>43960.8125</v>
       </c>
       <c r="D180">
@@ -19021,7 +19050,7 @@
         <v>1452.37</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -19029,7 +19058,7 @@
         <v>43960</v>
       </c>
       <c r="C181" s="3">
-        <f>B181+A181</f>
+        <f t="shared" si="2"/>
         <v>43960.822916666664</v>
       </c>
       <c r="D181">
@@ -19048,7 +19077,7 @@
         <v>1450.44</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -19056,7 +19085,7 @@
         <v>43960</v>
       </c>
       <c r="C182" s="3">
-        <f>B182+A182</f>
+        <f t="shared" si="2"/>
         <v>43960.833333333336</v>
       </c>
       <c r="D182">
@@ -19075,7 +19104,7 @@
         <v>1449.94</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>0.84375</v>
       </c>
@@ -19083,7 +19112,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="3">
-        <f>B183+A183</f>
+        <f t="shared" si="2"/>
         <v>43960.84375</v>
       </c>
       <c r="D183">
@@ -19102,7 +19131,7 @@
         <v>1448.08</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -19110,7 +19139,7 @@
         <v>43960</v>
       </c>
       <c r="C184" s="3">
-        <f>B184+A184</f>
+        <f t="shared" si="2"/>
         <v>43960.854166666664</v>
       </c>
       <c r="D184">
@@ -19129,7 +19158,7 @@
         <v>1447.43</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -19137,7 +19166,7 @@
         <v>43960</v>
       </c>
       <c r="C185" s="3">
-        <f>B185+A185</f>
+        <f t="shared" si="2"/>
         <v>43960.864583333336</v>
       </c>
       <c r="D185">
@@ -19156,7 +19185,7 @@
         <v>1448.51</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>0.875</v>
       </c>
@@ -19164,7 +19193,7 @@
         <v>43960</v>
       </c>
       <c r="C186" s="3">
-        <f>B186+A186</f>
+        <f t="shared" si="2"/>
         <v>43960.875</v>
       </c>
       <c r="D186">
@@ -19183,7 +19212,7 @@
         <v>1449.49</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -19191,7 +19220,7 @@
         <v>43960</v>
       </c>
       <c r="C187" s="3">
-        <f>B187+A187</f>
+        <f t="shared" si="2"/>
         <v>43960.885416666664</v>
       </c>
       <c r="D187">
@@ -19210,7 +19239,7 @@
         <v>1450.34</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -19218,7 +19247,7 @@
         <v>43960</v>
       </c>
       <c r="C188" s="3">
-        <f>B188+A188</f>
+        <f t="shared" si="2"/>
         <v>43960.895833333336</v>
       </c>
       <c r="D188">
@@ -19237,7 +19266,7 @@
         <v>1450.94</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>0.90625</v>
       </c>
@@ -19245,7 +19274,7 @@
         <v>43960</v>
       </c>
       <c r="C189" s="3">
-        <f>B189+A189</f>
+        <f t="shared" si="2"/>
         <v>43960.90625</v>
       </c>
       <c r="D189">
@@ -19264,7 +19293,7 @@
         <v>1451.16</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -19272,7 +19301,7 @@
         <v>43960</v>
       </c>
       <c r="C190" s="3">
-        <f>B190+A190</f>
+        <f t="shared" si="2"/>
         <v>43960.916666666664</v>
       </c>
       <c r="D190">
@@ -19291,7 +19320,7 @@
         <v>1452.58</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -19299,7 +19328,7 @@
         <v>43960</v>
       </c>
       <c r="C191" s="3">
-        <f>B191+A191</f>
+        <f t="shared" si="2"/>
         <v>43960.927083333336</v>
       </c>
       <c r="D191">
@@ -19318,7 +19347,7 @@
         <v>1452.63</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>0.9375</v>
       </c>
@@ -19326,7 +19355,7 @@
         <v>43960</v>
       </c>
       <c r="C192" s="3">
-        <f>B192+A192</f>
+        <f t="shared" si="2"/>
         <v>43960.9375</v>
       </c>
       <c r="D192">
@@ -19345,7 +19374,7 @@
         <v>1453.81</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -19353,7 +19382,7 @@
         <v>43960</v>
       </c>
       <c r="C193" s="3">
-        <f>B193+A193</f>
+        <f t="shared" si="2"/>
         <v>43960.947916666664</v>
       </c>
       <c r="D193">
@@ -19372,7 +19401,7 @@
         <v>1455.25</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -19380,7 +19409,7 @@
         <v>43960</v>
       </c>
       <c r="C194" s="3">
-        <f>B194+A194</f>
+        <f t="shared" ref="C194:C257" si="3">B194+A194</f>
         <v>43960.958333333336</v>
       </c>
       <c r="D194">
@@ -19399,7 +19428,7 @@
         <v>1457.89</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>0.96875</v>
       </c>
@@ -19407,7 +19436,7 @@
         <v>43960</v>
       </c>
       <c r="C195" s="3">
-        <f>B195+A195</f>
+        <f t="shared" si="3"/>
         <v>43960.96875</v>
       </c>
       <c r="D195">
@@ -19426,7 +19455,7 @@
         <v>1458.41</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -19434,7 +19463,7 @@
         <v>43960</v>
       </c>
       <c r="C196" s="3">
-        <f>B196+A196</f>
+        <f t="shared" si="3"/>
         <v>43960.979166666664</v>
       </c>
       <c r="D196">
@@ -19453,7 +19482,7 @@
         <v>1459.1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -19461,7 +19490,7 @@
         <v>43960</v>
       </c>
       <c r="C197" s="3">
-        <f>B197+A197</f>
+        <f t="shared" si="3"/>
         <v>43960.989583333336</v>
       </c>
       <c r="D197">
@@ -19480,7 +19509,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -19488,7 +19517,7 @@
         <v>43961</v>
       </c>
       <c r="C198" s="3">
-        <f>B198+A198</f>
+        <f t="shared" si="3"/>
         <v>43961</v>
       </c>
       <c r="D198">
@@ -19507,7 +19536,7 @@
         <v>1460.91</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -19515,7 +19544,7 @@
         <v>43961</v>
       </c>
       <c r="C199" s="3">
-        <f>B199+A199</f>
+        <f t="shared" si="3"/>
         <v>43961.010416666664</v>
       </c>
       <c r="D199">
@@ -19534,7 +19563,7 @@
         <v>1461.61</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -19542,7 +19571,7 @@
         <v>43961</v>
       </c>
       <c r="C200" s="3">
-        <f>B200+A200</f>
+        <f t="shared" si="3"/>
         <v>43961.020833333336</v>
       </c>
       <c r="D200">
@@ -19561,7 +19590,7 @@
         <v>1463.09</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>3.125E-2</v>
       </c>
@@ -19569,7 +19598,7 @@
         <v>43961</v>
       </c>
       <c r="C201" s="3">
-        <f>B201+A201</f>
+        <f t="shared" si="3"/>
         <v>43961.03125</v>
       </c>
       <c r="D201">
@@ -19588,7 +19617,7 @@
         <v>1462.64</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -19596,7 +19625,7 @@
         <v>43961</v>
       </c>
       <c r="C202" s="3">
-        <f>B202+A202</f>
+        <f t="shared" si="3"/>
         <v>43961.041666666664</v>
       </c>
       <c r="D202">
@@ -19615,7 +19644,7 @@
         <v>1461.59</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -19623,7 +19652,7 @@
         <v>43961</v>
       </c>
       <c r="C203" s="3">
-        <f>B203+A203</f>
+        <f t="shared" si="3"/>
         <v>43961.052083333336</v>
       </c>
       <c r="D203">
@@ -19642,7 +19671,7 @@
         <v>1463.37</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>6.25E-2</v>
       </c>
@@ -19650,7 +19679,7 @@
         <v>43961</v>
       </c>
       <c r="C204" s="3">
-        <f>B204+A204</f>
+        <f t="shared" si="3"/>
         <v>43961.0625</v>
       </c>
       <c r="D204">
@@ -19669,7 +19698,7 @@
         <v>1462.18</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -19677,7 +19706,7 @@
         <v>43961</v>
       </c>
       <c r="C205" s="3">
-        <f>B205+A205</f>
+        <f t="shared" si="3"/>
         <v>43961.072916666664</v>
       </c>
       <c r="D205">
@@ -19696,7 +19725,7 @@
         <v>1462.89</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -19704,7 +19733,7 @@
         <v>43961</v>
       </c>
       <c r="C206" s="3">
-        <f>B206+A206</f>
+        <f t="shared" si="3"/>
         <v>43961.083333333336</v>
       </c>
       <c r="D206">
@@ -19723,7 +19752,7 @@
         <v>1463.11</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>9.375E-2</v>
       </c>
@@ -19731,7 +19760,7 @@
         <v>43961</v>
       </c>
       <c r="C207" s="3">
-        <f>B207+A207</f>
+        <f t="shared" si="3"/>
         <v>43961.09375</v>
       </c>
       <c r="D207">
@@ -19750,7 +19779,7 @@
         <v>1464.47</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -19758,7 +19787,7 @@
         <v>43961</v>
       </c>
       <c r="C208" s="3">
-        <f>B208+A208</f>
+        <f t="shared" si="3"/>
         <v>43961.104166666664</v>
       </c>
       <c r="D208">
@@ -19777,7 +19806,7 @@
         <v>1463.99</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -19785,7 +19814,7 @@
         <v>43961</v>
       </c>
       <c r="C209" s="3">
-        <f>B209+A209</f>
+        <f t="shared" si="3"/>
         <v>43961.114583333336</v>
       </c>
       <c r="D209">
@@ -19804,7 +19833,7 @@
         <v>1463.06</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>0.125</v>
       </c>
@@ -19812,7 +19841,7 @@
         <v>43961</v>
       </c>
       <c r="C210" s="3">
-        <f>B210+A210</f>
+        <f t="shared" si="3"/>
         <v>43961.125</v>
       </c>
       <c r="D210">
@@ -19831,7 +19860,7 @@
         <v>1463.33</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -19839,7 +19868,7 @@
         <v>43961</v>
       </c>
       <c r="C211" s="3">
-        <f>B211+A211</f>
+        <f t="shared" si="3"/>
         <v>43961.135416666664</v>
       </c>
       <c r="D211">
@@ -19858,7 +19887,7 @@
         <v>1462.36</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -19866,7 +19895,7 @@
         <v>43961</v>
       </c>
       <c r="C212" s="3">
-        <f>B212+A212</f>
+        <f t="shared" si="3"/>
         <v>43961.145833333336</v>
       </c>
       <c r="D212">
@@ -19885,7 +19914,7 @@
         <v>1460.42</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>0.15625</v>
       </c>
@@ -19893,7 +19922,7 @@
         <v>43961</v>
       </c>
       <c r="C213" s="3">
-        <f>B213+A213</f>
+        <f t="shared" si="3"/>
         <v>43961.15625</v>
       </c>
       <c r="D213">
@@ -19912,7 +19941,7 @@
         <v>1459.56</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -19920,7 +19949,7 @@
         <v>43961</v>
       </c>
       <c r="C214" s="3">
-        <f>B214+A214</f>
+        <f t="shared" si="3"/>
         <v>43961.166666666664</v>
       </c>
       <c r="D214">
@@ -19939,7 +19968,7 @@
         <v>1458.22</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -19947,7 +19976,7 @@
         <v>43961</v>
       </c>
       <c r="C215" s="3">
-        <f>B215+A215</f>
+        <f t="shared" si="3"/>
         <v>43961.177083333336</v>
       </c>
       <c r="D215">
@@ -19966,7 +19995,7 @@
         <v>1457.45</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>0.1875</v>
       </c>
@@ -19974,7 +20003,7 @@
         <v>43961</v>
       </c>
       <c r="C216" s="3">
-        <f>B216+A216</f>
+        <f t="shared" si="3"/>
         <v>43961.1875</v>
       </c>
       <c r="D216">
@@ -19993,7 +20022,7 @@
         <v>1454.85</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -20001,7 +20030,7 @@
         <v>43961</v>
       </c>
       <c r="C217" s="3">
-        <f>B217+A217</f>
+        <f t="shared" si="3"/>
         <v>43961.197916666664</v>
       </c>
       <c r="D217">
@@ -20020,7 +20049,7 @@
         <v>1452.42</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -20028,7 +20057,7 @@
         <v>43961</v>
       </c>
       <c r="C218" s="3">
-        <f>B218+A218</f>
+        <f t="shared" si="3"/>
         <v>43961.208333333336</v>
       </c>
       <c r="D218">
@@ -20047,7 +20076,7 @@
         <v>1450.37</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>0.21875</v>
       </c>
@@ -20055,7 +20084,7 @@
         <v>43961</v>
       </c>
       <c r="C219" s="3">
-        <f>B219+A219</f>
+        <f t="shared" si="3"/>
         <v>43961.21875</v>
       </c>
       <c r="D219">
@@ -20074,7 +20103,7 @@
         <v>1448.57</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -20082,7 +20111,7 @@
         <v>43961</v>
       </c>
       <c r="C220" s="3">
-        <f>B220+A220</f>
+        <f t="shared" si="3"/>
         <v>43961.229166666664</v>
       </c>
       <c r="D220">
@@ -20101,7 +20130,7 @@
         <v>1447.67</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -20109,7 +20138,7 @@
         <v>43961</v>
       </c>
       <c r="C221" s="3">
-        <f>B221+A221</f>
+        <f t="shared" si="3"/>
         <v>43961.239583333336</v>
       </c>
       <c r="D221">
@@ -20128,7 +20157,7 @@
         <v>1446.78</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>0.25</v>
       </c>
@@ -20136,7 +20165,7 @@
         <v>43961</v>
       </c>
       <c r="C222" s="3">
-        <f>B222+A222</f>
+        <f t="shared" si="3"/>
         <v>43961.25</v>
       </c>
       <c r="D222">
@@ -20155,7 +20184,7 @@
         <v>1447.91</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -20163,7 +20192,7 @@
         <v>43961</v>
       </c>
       <c r="C223" s="3">
-        <f>B223+A223</f>
+        <f t="shared" si="3"/>
         <v>43961.260416666664</v>
       </c>
       <c r="D223">
@@ -20182,7 +20211,7 @@
         <v>1446.78</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -20190,7 +20219,7 @@
         <v>43961</v>
       </c>
       <c r="C224" s="3">
-        <f>B224+A224</f>
+        <f t="shared" si="3"/>
         <v>43961.270833333336</v>
       </c>
       <c r="D224">
@@ -20209,7 +20238,7 @@
         <v>1448.58</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>0.28125</v>
       </c>
@@ -20217,7 +20246,7 @@
         <v>43961</v>
       </c>
       <c r="C225" s="3">
-        <f>B225+A225</f>
+        <f t="shared" si="3"/>
         <v>43961.28125</v>
       </c>
       <c r="D225">
@@ -20236,7 +20265,7 @@
         <v>1447.86</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -20244,7 +20273,7 @@
         <v>43961</v>
       </c>
       <c r="C226" s="3">
-        <f>B226+A226</f>
+        <f t="shared" si="3"/>
         <v>43961.291666666664</v>
       </c>
       <c r="D226">
@@ -20263,7 +20292,7 @@
         <v>1448.16</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -20271,7 +20300,7 @@
         <v>43961</v>
       </c>
       <c r="C227" s="3">
-        <f>B227+A227</f>
+        <f t="shared" si="3"/>
         <v>43961.302083333336</v>
       </c>
       <c r="D227">
@@ -20290,7 +20319,7 @@
         <v>1449.07</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>0.3125</v>
       </c>
@@ -20298,7 +20327,7 @@
         <v>43961</v>
       </c>
       <c r="C228" s="3">
-        <f>B228+A228</f>
+        <f t="shared" si="3"/>
         <v>43961.3125</v>
       </c>
       <c r="D228">
@@ -20317,7 +20346,7 @@
         <v>1450.05</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -20325,7 +20354,7 @@
         <v>43961</v>
       </c>
       <c r="C229" s="3">
-        <f>B229+A229</f>
+        <f t="shared" si="3"/>
         <v>43961.322916666664</v>
       </c>
       <c r="D229">
@@ -20344,7 +20373,7 @@
         <v>1450.66</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -20352,7 +20381,7 @@
         <v>43961</v>
       </c>
       <c r="C230" s="3">
-        <f>B230+A230</f>
+        <f t="shared" si="3"/>
         <v>43961.333333333336</v>
       </c>
       <c r="D230">
@@ -20371,7 +20400,7 @@
         <v>1451.36</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>0.34375</v>
       </c>
@@ -20379,7 +20408,7 @@
         <v>43961</v>
       </c>
       <c r="C231" s="3">
-        <f>B231+A231</f>
+        <f t="shared" si="3"/>
         <v>43961.34375</v>
       </c>
       <c r="D231">
@@ -20398,7 +20427,7 @@
         <v>1452.29</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -20406,7 +20435,7 @@
         <v>43961</v>
       </c>
       <c r="C232" s="3">
-        <f>B232+A232</f>
+        <f t="shared" si="3"/>
         <v>43961.354166666664</v>
       </c>
       <c r="D232">
@@ -20425,7 +20454,7 @@
         <v>1453.71</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -20433,7 +20462,7 @@
         <v>43961</v>
       </c>
       <c r="C233" s="3">
-        <f>B233+A233</f>
+        <f t="shared" si="3"/>
         <v>43961.364583333336</v>
       </c>
       <c r="D233">
@@ -20452,7 +20481,7 @@
         <v>1455.71</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>0.375</v>
       </c>
@@ -20460,7 +20489,7 @@
         <v>43961</v>
       </c>
       <c r="C234" s="3">
-        <f>B234+A234</f>
+        <f t="shared" si="3"/>
         <v>43961.375</v>
       </c>
       <c r="D234">
@@ -20479,7 +20508,7 @@
         <v>1455.07</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -20487,7 +20516,7 @@
         <v>43961</v>
       </c>
       <c r="C235" s="3">
-        <f>B235+A235</f>
+        <f t="shared" si="3"/>
         <v>43961.385416666664</v>
       </c>
       <c r="D235">
@@ -20506,7 +20535,7 @@
         <v>1454.94</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -20514,7 +20543,7 @@
         <v>43961</v>
       </c>
       <c r="C236" s="3">
-        <f>B236+A236</f>
+        <f t="shared" si="3"/>
         <v>43961.395833333336</v>
       </c>
       <c r="D236">
@@ -20533,7 +20562,7 @@
         <v>1455.09</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>0.40625</v>
       </c>
@@ -20541,7 +20570,7 @@
         <v>43961</v>
       </c>
       <c r="C237" s="3">
-        <f>B237+A237</f>
+        <f t="shared" si="3"/>
         <v>43961.40625</v>
       </c>
       <c r="D237">
@@ -20560,7 +20589,7 @@
         <v>1456.66</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -20568,7 +20597,7 @@
         <v>43961</v>
       </c>
       <c r="C238" s="3">
-        <f>B238+A238</f>
+        <f t="shared" si="3"/>
         <v>43961.416666666664</v>
       </c>
       <c r="D238">
@@ -20587,7 +20616,7 @@
         <v>1458.74</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -20595,7 +20624,7 @@
         <v>43961</v>
       </c>
       <c r="C239" s="3">
-        <f>B239+A239</f>
+        <f t="shared" si="3"/>
         <v>43961.427083333336</v>
       </c>
       <c r="D239">
@@ -20614,7 +20643,7 @@
         <v>1460.03</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>0.4375</v>
       </c>
@@ -20622,7 +20651,7 @@
         <v>43961</v>
       </c>
       <c r="C240" s="3">
-        <f>B240+A240</f>
+        <f t="shared" si="3"/>
         <v>43961.4375</v>
       </c>
       <c r="D240">
@@ -20641,7 +20670,7 @@
         <v>1462.79</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -20649,7 +20678,7 @@
         <v>43961</v>
       </c>
       <c r="C241" s="3">
-        <f>B241+A241</f>
+        <f t="shared" si="3"/>
         <v>43961.447916666664</v>
       </c>
       <c r="D241">
@@ -20668,7 +20697,7 @@
         <v>1465.25</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -20676,7 +20705,7 @@
         <v>43961</v>
       </c>
       <c r="C242" s="3">
-        <f>B242+A242</f>
+        <f t="shared" si="3"/>
         <v>43961.458333333336</v>
       </c>
       <c r="D242">
@@ -20695,7 +20724,7 @@
         <v>1467.74</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>0.46875</v>
       </c>
@@ -20703,7 +20732,7 @@
         <v>43961</v>
       </c>
       <c r="C243" s="3">
-        <f>B243+A243</f>
+        <f t="shared" si="3"/>
         <v>43961.46875</v>
       </c>
       <c r="D243">
@@ -20722,7 +20751,7 @@
         <v>1468.89</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -20730,7 +20759,7 @@
         <v>43961</v>
       </c>
       <c r="C244" s="3">
-        <f>B244+A244</f>
+        <f t="shared" si="3"/>
         <v>43961.479166666664</v>
       </c>
       <c r="D244">
@@ -20749,7 +20778,7 @@
         <v>1471.17</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -20757,7 +20786,7 @@
         <v>43961</v>
       </c>
       <c r="C245" s="3">
-        <f>B245+A245</f>
+        <f t="shared" si="3"/>
         <v>43961.489583333336</v>
       </c>
       <c r="D245">
@@ -20776,7 +20805,7 @@
         <v>1473.38</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>0.5</v>
       </c>
@@ -20784,7 +20813,7 @@
         <v>43961</v>
       </c>
       <c r="C246" s="3">
-        <f>B246+A246</f>
+        <f t="shared" si="3"/>
         <v>43961.5</v>
       </c>
       <c r="D246">
@@ -20803,7 +20832,7 @@
         <v>1475.68</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -20811,7 +20840,7 @@
         <v>43961</v>
       </c>
       <c r="C247" s="3">
-        <f>B247+A247</f>
+        <f t="shared" si="3"/>
         <v>43961.510416666664</v>
       </c>
       <c r="D247">
@@ -20830,7 +20859,7 @@
         <v>1479.25</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -20838,7 +20867,7 @@
         <v>43961</v>
       </c>
       <c r="C248" s="3">
-        <f>B248+A248</f>
+        <f t="shared" si="3"/>
         <v>43961.520833333336</v>
       </c>
       <c r="D248">
@@ -20857,7 +20886,7 @@
         <v>1480.18</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>0.53125</v>
       </c>
@@ -20865,7 +20894,7 @@
         <v>43961</v>
       </c>
       <c r="C249" s="3">
-        <f>B249+A249</f>
+        <f t="shared" si="3"/>
         <v>43961.53125</v>
       </c>
       <c r="D249">
@@ -20884,7 +20913,7 @@
         <v>1482.39</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -20892,7 +20921,7 @@
         <v>43961</v>
       </c>
       <c r="C250" s="3">
-        <f>B250+A250</f>
+        <f t="shared" si="3"/>
         <v>43961.541666666664</v>
       </c>
       <c r="D250">
@@ -20911,7 +20940,7 @@
         <v>1484.12</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -20919,7 +20948,7 @@
         <v>43961</v>
       </c>
       <c r="C251" s="3">
-        <f>B251+A251</f>
+        <f t="shared" si="3"/>
         <v>43961.552083333336</v>
       </c>
       <c r="D251">
@@ -20938,7 +20967,7 @@
         <v>1484.23</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>0.5625</v>
       </c>
@@ -20946,7 +20975,7 @@
         <v>43961</v>
       </c>
       <c r="C252" s="3">
-        <f>B252+A252</f>
+        <f t="shared" si="3"/>
         <v>43961.5625</v>
       </c>
       <c r="D252">
@@ -20965,7 +20994,7 @@
         <v>1484.53</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -20973,7 +21002,7 @@
         <v>43961</v>
       </c>
       <c r="C253" s="3">
-        <f>B253+A253</f>
+        <f t="shared" si="3"/>
         <v>43961.572916666664</v>
       </c>
       <c r="D253">
@@ -20992,7 +21021,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -21000,7 +21029,7 @@
         <v>43961</v>
       </c>
       <c r="C254" s="3">
-        <f>B254+A254</f>
+        <f t="shared" si="3"/>
         <v>43961.583333333336</v>
       </c>
       <c r="D254">
@@ -21019,7 +21048,7 @@
         <v>1485.35</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>0.59375</v>
       </c>
@@ -21027,7 +21056,7 @@
         <v>43961</v>
       </c>
       <c r="C255" s="3">
-        <f>B255+A255</f>
+        <f t="shared" si="3"/>
         <v>43961.59375</v>
       </c>
       <c r="D255">
@@ -21046,7 +21075,7 @@
         <v>1484.67</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -21054,7 +21083,7 @@
         <v>43961</v>
       </c>
       <c r="C256" s="3">
-        <f>B256+A256</f>
+        <f t="shared" si="3"/>
         <v>43961.604166666664</v>
       </c>
       <c r="D256">
@@ -21073,7 +21102,7 @@
         <v>1484.04</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -21081,7 +21110,7 @@
         <v>43961</v>
       </c>
       <c r="C257" s="3">
-        <f>B257+A257</f>
+        <f t="shared" si="3"/>
         <v>43961.614583333336</v>
       </c>
       <c r="D257">
@@ -21100,7 +21129,7 @@
         <v>1483.46</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>0.625</v>
       </c>
@@ -21108,7 +21137,7 @@
         <v>43961</v>
       </c>
       <c r="C258" s="3">
-        <f>B258+A258</f>
+        <f t="shared" ref="C258:C277" si="4">B258+A258</f>
         <v>43961.625</v>
       </c>
       <c r="D258">
@@ -21127,7 +21156,7 @@
         <v>1481.4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -21135,7 +21164,7 @@
         <v>43961</v>
       </c>
       <c r="C259" s="3">
-        <f>B259+A259</f>
+        <f t="shared" si="4"/>
         <v>43961.635416666664</v>
       </c>
       <c r="D259">
@@ -21154,7 +21183,7 @@
         <v>1480.83</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -21162,7 +21191,7 @@
         <v>43961</v>
       </c>
       <c r="C260" s="3">
-        <f>B260+A260</f>
+        <f t="shared" si="4"/>
         <v>43961.645833333336</v>
       </c>
       <c r="D260">
@@ -21181,7 +21210,7 @@
         <v>1480.11</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>0.65625</v>
       </c>
@@ -21189,7 +21218,7 @@
         <v>43961</v>
       </c>
       <c r="C261" s="3">
-        <f>B261+A261</f>
+        <f t="shared" si="4"/>
         <v>43961.65625</v>
       </c>
       <c r="D261">
@@ -21208,7 +21237,7 @@
         <v>1478.83</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -21216,7 +21245,7 @@
         <v>43961</v>
       </c>
       <c r="C262" s="3">
-        <f>B262+A262</f>
+        <f t="shared" si="4"/>
         <v>43961.666666666664</v>
       </c>
       <c r="D262">
@@ -21235,7 +21264,7 @@
         <v>1474.63</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -21243,7 +21272,7 @@
         <v>43961</v>
       </c>
       <c r="C263" s="3">
-        <f>B263+A263</f>
+        <f t="shared" si="4"/>
         <v>43961.677083333336</v>
       </c>
       <c r="D263">
@@ -21262,7 +21291,7 @@
         <v>1472.21</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>0.6875</v>
       </c>
@@ -21270,7 +21299,7 @@
         <v>43961</v>
       </c>
       <c r="C264" s="3">
-        <f>B264+A264</f>
+        <f t="shared" si="4"/>
         <v>43961.6875</v>
       </c>
       <c r="D264">
@@ -21289,7 +21318,7 @@
         <v>1469.47</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -21297,7 +21326,7 @@
         <v>43961</v>
       </c>
       <c r="C265" s="3">
-        <f>B265+A265</f>
+        <f t="shared" si="4"/>
         <v>43961.697916666664</v>
       </c>
       <c r="D265">
@@ -21316,7 +21345,7 @@
         <v>1467.66</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -21324,7 +21353,7 @@
         <v>43961</v>
       </c>
       <c r="C266" s="3">
-        <f>B266+A266</f>
+        <f t="shared" si="4"/>
         <v>43961.708333333336</v>
       </c>
       <c r="D266">
@@ -21343,7 +21372,7 @@
         <v>1464.41</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>0.71875</v>
       </c>
@@ -21351,7 +21380,7 @@
         <v>43961</v>
       </c>
       <c r="C267" s="3">
-        <f>B267+A267</f>
+        <f t="shared" si="4"/>
         <v>43961.71875</v>
       </c>
       <c r="D267">
@@ -21370,7 +21399,7 @@
         <v>1462.53</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -21378,7 +21407,7 @@
         <v>43961</v>
       </c>
       <c r="C268" s="3">
-        <f>B268+A268</f>
+        <f t="shared" si="4"/>
         <v>43961.729166666664</v>
       </c>
       <c r="D268">
@@ -21397,7 +21426,7 @@
         <v>1462.14</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -21405,7 +21434,7 @@
         <v>43961</v>
       </c>
       <c r="C269" s="3">
-        <f>B269+A269</f>
+        <f t="shared" si="4"/>
         <v>43961.739583333336</v>
       </c>
       <c r="D269">
@@ -21424,7 +21453,7 @@
         <v>1459.48</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>0.75</v>
       </c>
@@ -21432,7 +21461,7 @@
         <v>43961</v>
       </c>
       <c r="C270" s="3">
-        <f>B270+A270</f>
+        <f t="shared" si="4"/>
         <v>43961.75</v>
       </c>
       <c r="D270">
@@ -21451,7 +21480,7 @@
         <v>1454.21</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -21459,7 +21488,7 @@
         <v>43961</v>
       </c>
       <c r="C271" s="3">
-        <f>B271+A271</f>
+        <f t="shared" si="4"/>
         <v>43961.760416666664</v>
       </c>
       <c r="D271">
@@ -21478,7 +21507,7 @@
         <v>1454.14</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -21486,7 +21515,7 @@
         <v>43961</v>
       </c>
       <c r="C272" s="3">
-        <f>B272+A272</f>
+        <f t="shared" si="4"/>
         <v>43961.770833333336</v>
       </c>
       <c r="D272">
@@ -21505,7 +21534,7 @@
         <v>1454.99</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>0.78125</v>
       </c>
@@ -21513,7 +21542,7 @@
         <v>43961</v>
       </c>
       <c r="C273" s="3">
-        <f>B273+A273</f>
+        <f t="shared" si="4"/>
         <v>43961.78125</v>
       </c>
       <c r="D273">
@@ -21532,7 +21561,7 @@
         <v>1453.88</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -21540,7 +21569,7 @@
         <v>43961</v>
       </c>
       <c r="C274" s="3">
-        <f>B274+A274</f>
+        <f t="shared" si="4"/>
         <v>43961.791666666664</v>
       </c>
       <c r="D274">
@@ -21559,7 +21588,7 @@
         <v>1451.56</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -21567,7 +21596,7 @@
         <v>43961</v>
       </c>
       <c r="C275" s="3">
-        <f>B275+A275</f>
+        <f t="shared" si="4"/>
         <v>43961.802083333336</v>
       </c>
       <c r="D275">
@@ -21586,7 +21615,7 @@
         <v>1450.96</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>0.8125</v>
       </c>
@@ -21594,7 +21623,7 @@
         <v>43961</v>
       </c>
       <c r="C276" s="3">
-        <f>B276+A276</f>
+        <f t="shared" si="4"/>
         <v>43961.8125</v>
       </c>
       <c r="D276">
@@ -21613,7 +21642,7 @@
         <v>1448.26</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -21621,7 +21650,7 @@
         <v>43961</v>
       </c>
       <c r="C277" s="3">
-        <f>B277+A277</f>
+        <f t="shared" si="4"/>
         <v>43961.822916666664</v>
       </c>
       <c r="D277">
@@ -21641,7 +21670,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H277">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H277">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
